--- a/printlist_form.xlsx
+++ b/printlist_form.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkuri\Desktop\一時置き2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkuri\Desktop\printlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A51B64F-E5EC-4346-AE43-30651329719B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37C16324-FDC9-4B7C-BCD1-055252B4D521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2146" yWindow="774" windowWidth="20310" windowHeight="16886" xr2:uid="{3B728628-65D8-4D02-A0AA-76AFD48C0BE7}"/>
   </bookViews>
@@ -48,6 +48,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>印刷番号</t>
+    <rPh sb="0" eb="2">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>会社名</t>
     <rPh sb="0" eb="3">
       <t>カイシャメイ</t>
@@ -111,21 +121,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>製造 番号</t>
+    <t>製造番号</t>
     <rPh sb="0" eb="2">
       <t>セイゾウ</t>
     </rPh>
-    <rPh sb="3" eb="5">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>印刷 番号</t>
-    <rPh sb="0" eb="2">
-      <t>インサツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
+    <rPh sb="2" eb="4">
       <t>バンゴウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -835,7 +835,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.1" x14ac:dyDescent="0.45"/>
@@ -852,7 +852,7 @@
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="7"/>
@@ -868,7 +868,7 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="21" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="9"/>
@@ -881,7 +881,7 @@
     </row>
     <row r="3" spans="1:12" ht="41.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -897,7 +897,7 @@
     </row>
     <row r="4" spans="1:12" ht="42.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
@@ -1053,13 +1053,13 @@
     </row>
     <row r="15" spans="1:12" ht="28.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="24"/>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="16" spans="1:12" ht="27.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -1101,14 +1101,14 @@
     </row>
     <row r="18" spans="1:12" ht="21.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="16"/>

--- a/printlist_form.xlsx
+++ b/printlist_form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkuri\Desktop\printlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37C16324-FDC9-4B7C-BCD1-055252B4D521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BD0541E-655D-4417-B56E-D55E5410FB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2146" yWindow="774" windowWidth="20310" windowHeight="16886" xr2:uid="{3B728628-65D8-4D02-A0AA-76AFD48C0BE7}"/>
+    <workbookView xWindow="761" yWindow="761" windowWidth="16152" windowHeight="16886" xr2:uid="{3B728628-65D8-4D02-A0AA-76AFD48C0BE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,81 +422,78 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -832,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF7DFAF1-29F5-41A5-8E94-BF004DE70B48}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.1" x14ac:dyDescent="0.45"/>
@@ -845,349 +842,186 @@
     <col min="5" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="20" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-    </row>
-    <row r="2" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="8"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="21" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="22"/>
+    </row>
+    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="19"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-    </row>
-    <row r="3" spans="1:12" ht="41.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="10" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="23"/>
+    </row>
+    <row r="3" spans="1:6" ht="41.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-    </row>
-    <row r="4" spans="1:12" ht="42.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="10" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="42.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-    </row>
-    <row r="5" spans="1:12" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-    </row>
-    <row r="6" spans="1:12" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-    </row>
-    <row r="7" spans="1:12" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-    </row>
-    <row r="8" spans="1:12" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-    </row>
-    <row r="9" spans="1:12" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-    </row>
-    <row r="10" spans="1:12" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-    </row>
-    <row r="11" spans="1:12" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-    </row>
-    <row r="12" spans="1:12" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-    </row>
-    <row r="13" spans="1:12" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-    </row>
-    <row r="14" spans="1:12" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-    </row>
-    <row r="15" spans="1:12" ht="28.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="11" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" ht="28.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-    </row>
-    <row r="16" spans="1:12" ht="27.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="11" t="s">
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="27.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-    </row>
-    <row r="17" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-    </row>
-    <row r="18" spans="1:12" ht="21.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="15" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="1:6" ht="21.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
+      <c r="C18" s="12"/>
+      <c r="D18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-    </row>
-    <row r="19" spans="1:12" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E18" s="12"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-    </row>
-    <row r="20" spans="1:12" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-    </row>
-    <row r="21" spans="1:12" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-    </row>
-    <row r="22" spans="1:12" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-    </row>
-    <row r="23" spans="1:12" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-    </row>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="21" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="22" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="23" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F14"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:F19"/>
-    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C2"/>
     <mergeCell ref="E1:F1"/>
@@ -1196,9 +1030,14 @@
     <mergeCell ref="B16:F17"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F14"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:F19"/>
+    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.11811023622047245" footer="0.31496062992125984"/>
   <pageSetup paperSize="32767" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/printlist_form.xlsx
+++ b/printlist_form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkuri\Desktop\printlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BD0541E-655D-4417-B56E-D55E5410FB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499F85C7-16F7-49C5-BDFE-F3AB232F389B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="761" yWindow="761" windowWidth="16152" windowHeight="16886" xr2:uid="{3B728628-65D8-4D02-A0AA-76AFD48C0BE7}"/>
+    <workbookView xWindow="747" yWindow="1956" windowWidth="25866" windowHeight="16886" xr2:uid="{3B728628-65D8-4D02-A0AA-76AFD48C0BE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,13 +65,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>商品名</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1回目</t>
     <rPh sb="1" eb="3">
       <t>カイメ</t>
@@ -127,6 +120,13 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製品名</t>
+    <rPh sb="0" eb="3">
+      <t>セイヒンメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -444,21 +444,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -476,24 +494,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -832,7 +832,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.1" x14ac:dyDescent="0.45"/>
@@ -843,178 +843,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
       <c r="D1" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="22"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="19"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="23"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="41.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" ht="42.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:6" ht="28.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="27.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:6" ht="21.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" ht="28.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" ht="27.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="1:6" ht="21.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="12" t="s">
+      <c r="C18" s="18"/>
+      <c r="D18" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="14"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" spans="1:6" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="17"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="15"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="21"/>
     </row>
     <row r="20" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="21" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1022,6 +1022,9 @@
     <row r="23" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:F19"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C2"/>
     <mergeCell ref="E1:F1"/>
@@ -1032,9 +1035,6 @@
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F14"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:F19"/>
-    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.11811023622047245" footer="0.31496062992125984"/>

--- a/printlist_form.xlsx
+++ b/printlist_form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkuri\Desktop\printlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499F85C7-16F7-49C5-BDFE-F3AB232F389B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DD6F252-555F-407C-A86E-7F7663C8DCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="747" yWindow="1956" windowWidth="25866" windowHeight="16886" xr2:uid="{3B728628-65D8-4D02-A0AA-76AFD48C0BE7}"/>
+    <workbookView xWindow="761" yWindow="761" windowWidth="29438" windowHeight="14699" xr2:uid="{3B728628-65D8-4D02-A0AA-76AFD48C0BE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -246,13 +246,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thick">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thick">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -267,7 +267,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thick">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -279,10 +279,10 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -291,7 +291,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thick">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -309,7 +309,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thick">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -321,7 +321,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thick">
         <color auto="1"/>
       </left>
       <right/>
@@ -331,7 +331,7 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thick">
         <color auto="1"/>
       </right>
       <top/>
@@ -340,7 +340,7 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thick">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -352,7 +352,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thick">
         <color auto="1"/>
       </left>
       <right style="dashed">
@@ -368,7 +368,7 @@
       <left style="dashed">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thick">
         <color auto="1"/>
       </right>
       <top style="dashed">
@@ -378,14 +378,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thick">
         <color auto="1"/>
       </left>
       <right style="dashed">
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thick">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -398,7 +398,7 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thick">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -407,11 +407,11 @@
       <left style="dashed">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thick">
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thick">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -432,68 +432,68 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -832,7 +832,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.1" x14ac:dyDescent="0.45"/>
@@ -842,181 +842,181 @@
     <col min="5" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="11"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="8"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="6" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="41.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:6" ht="42.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:6" ht="28.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6" ht="27.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:6" ht="21.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18" t="s">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="18"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="20"/>
     </row>
     <row r="19" spans="1:6" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="23"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="21"/>
-    </row>
-    <row r="20" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="23"/>
+    </row>
+    <row r="20" spans="1:6" ht="30.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="21" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="22" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="23" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/printlist_form.xlsx
+++ b/printlist_form.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkuri\Desktop\printlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DD6F252-555F-407C-A86E-7F7663C8DCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{889EEBD6-80AC-49CB-BD71-4C5054776DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="761" yWindow="761" windowWidth="29438" windowHeight="14699" xr2:uid="{3B728628-65D8-4D02-A0AA-76AFD48C0BE7}"/>
+    <workbookView xWindow="6615" yWindow="1545" windowWidth="26535" windowHeight="18075" xr2:uid="{3B728628-65D8-4D02-A0AA-76AFD48C0BE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -435,65 +435,65 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -832,194 +832,193 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="22.2" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="3" width="8.796875" style="1"/>
-    <col min="4" max="4" width="9.69921875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="13" width="9.6328125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" ht="25.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="11"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="17"/>
+    </row>
+    <row r="2" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="14"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" ht="41.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="13" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="1:6" ht="42.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="13" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="23"/>
+    </row>
+    <row r="4" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-    </row>
-    <row r="6" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
-    </row>
-    <row r="7" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-    </row>
-    <row r="8" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-    </row>
-    <row r="9" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-    </row>
-    <row r="10" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-    </row>
-    <row r="11" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-    </row>
-    <row r="12" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-    </row>
-    <row r="13" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
-    </row>
-    <row r="15" spans="1:6" ht="28.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="15" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
+    </row>
+    <row r="5" spans="1:6" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
+    </row>
+    <row r="6" spans="1:6" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
+    </row>
+    <row r="8" spans="1:6" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21"/>
+    </row>
+    <row r="9" spans="1:6" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+    </row>
+    <row r="10" spans="1:6" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21"/>
+    </row>
+    <row r="11" spans="1:6" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+    </row>
+    <row r="12" spans="1:6" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
+    </row>
+    <row r="13" spans="1:6" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" spans="1:6" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="18"/>
-    </row>
-    <row r="16" spans="1:6" ht="27.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="15" t="s">
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="27.15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-    </row>
-    <row r="17" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="1:6" ht="21.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="19" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
+    </row>
+    <row r="17" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
+    </row>
+    <row r="18" spans="1:6" ht="21.15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="20"/>
-    </row>
-    <row r="19" spans="1:6" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
-    </row>
-    <row r="20" spans="1:6" ht="30.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="21" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="22" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="23" spans="1:6" ht="30.1" customHeight="1" x14ac:dyDescent="0.45"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="12"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" ht="30.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.5"/>
+    <row r="21" spans="1:6" ht="30.15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="22" spans="1:6" ht="30.15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="23" spans="1:6" ht="30.15" customHeight="1" x14ac:dyDescent="0.5"/>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="B18:C19"/>
@@ -1038,6 +1037,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.11811023622047245" footer="0.31496062992125984"/>
-  <pageSetup paperSize="32767" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/printlist_form.xlsx
+++ b/printlist_form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkuri\Desktop\printlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{889EEBD6-80AC-49CB-BD71-4C5054776DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDC459A-5A89-49DB-89C1-5804F960062D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6615" yWindow="1545" windowWidth="26535" windowHeight="18075" xr2:uid="{3B728628-65D8-4D02-A0AA-76AFD48C0BE7}"/>
+    <workbookView xWindow="9998" yWindow="2812" windowWidth="18340" windowHeight="15854" xr2:uid="{3B728628-65D8-4D02-A0AA-76AFD48C0BE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$19</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>製造日</t>
     <rPh sb="0" eb="3">
@@ -127,6 +127,13 @@
     <t>製品名</t>
     <rPh sb="0" eb="3">
       <t>セイヒンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当者</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -196,7 +203,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -416,13 +423,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -494,6 +541,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -831,17 +890,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF7DFAF1-29F5-41A5-8E94-BF004DE70B48}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="22.2" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="23.1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="13" width="9.6328125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="13" width="9.59765625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="25.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -853,7 +912,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="17"/>
     </row>
-    <row r="2" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="14"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -863,7 +922,7 @@
       <c r="E2" s="16"/>
       <c r="F2" s="18"/>
     </row>
-    <row r="3" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6" ht="41.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -873,7 +932,7 @@
       <c r="E3" s="22"/>
       <c r="F3" s="23"/>
     </row>
-    <row r="4" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" ht="42.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -883,7 +942,7 @@
       <c r="E4" s="22"/>
       <c r="F4" s="23"/>
     </row>
-    <row r="5" spans="1:6" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" ht="30.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="19"/>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -891,7 +950,7 @@
       <c r="E5" s="20"/>
       <c r="F5" s="21"/>
     </row>
-    <row r="6" spans="1:6" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" ht="30.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="19"/>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
@@ -899,7 +958,7 @@
       <c r="E6" s="20"/>
       <c r="F6" s="21"/>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="19"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -907,7 +966,7 @@
       <c r="E7" s="20"/>
       <c r="F7" s="21"/>
     </row>
-    <row r="8" spans="1:6" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6" ht="30.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="19"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -915,7 +974,7 @@
       <c r="E8" s="20"/>
       <c r="F8" s="21"/>
     </row>
-    <row r="9" spans="1:6" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:6" ht="30.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="19"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
@@ -923,7 +982,7 @@
       <c r="E9" s="20"/>
       <c r="F9" s="21"/>
     </row>
-    <row r="10" spans="1:6" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:6" ht="30.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="19"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -931,7 +990,7 @@
       <c r="E10" s="20"/>
       <c r="F10" s="21"/>
     </row>
-    <row r="11" spans="1:6" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:6" ht="30.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="19"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -939,7 +998,7 @@
       <c r="E11" s="20"/>
       <c r="F11" s="21"/>
     </row>
-    <row r="12" spans="1:6" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:6" ht="30.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="19"/>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -947,7 +1006,7 @@
       <c r="E12" s="20"/>
       <c r="F12" s="21"/>
     </row>
-    <row r="13" spans="1:6" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:6" ht="30.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="19"/>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
@@ -955,7 +1014,7 @@
       <c r="E13" s="20"/>
       <c r="F13" s="21"/>
     </row>
-    <row r="14" spans="1:6" ht="30.15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:6" ht="30.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="19"/>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
@@ -963,7 +1022,7 @@
       <c r="E14" s="20"/>
       <c r="F14" s="21"/>
     </row>
-    <row r="15" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6" ht="28.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="19" t="s">
         <v>7</v>
       </c>
@@ -975,25 +1034,27 @@
       </c>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" ht="27.15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6" ht="27.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
-    </row>
-    <row r="17" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E16" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="26"/>
+    </row>
+    <row r="17" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21"/>
-    </row>
-    <row r="18" spans="1:6" ht="21.15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="27"/>
+    </row>
+    <row r="18" spans="1:6" ht="21.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="11" t="s">
         <v>8</v>
       </c>
@@ -1007,7 +1068,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:6" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="12"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -1015,12 +1076,12 @@
       <c r="E19" s="8"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" ht="30.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.5"/>
-    <row r="21" spans="1:6" ht="30.15" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="22" spans="1:6" ht="30.15" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="23" spans="1:6" ht="30.15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="20" spans="1:6" ht="30.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="21" spans="1:6" ht="30.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="22" spans="1:6" ht="30.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="23" spans="1:6" ht="30.25" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
     <mergeCell ref="B18:C19"/>
     <mergeCell ref="D18:F19"/>
     <mergeCell ref="A18:A19"/>
@@ -1029,11 +1090,13 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:F17"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F14"/>
+    <mergeCell ref="B16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.11811023622047245" footer="0.31496062992125984"/>
